--- a/dados/sobrestados.xlsx
+++ b/dados/sobrestados.xlsx
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" s="3">
-        <v>55428</v>
+        <v>55429</v>
       </c>
     </row>
     <row r="8" ht="32.517578125" customHeight="1">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" s="3">
-        <v>313</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" ht="32.517578125" customHeight="1">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="B71" s="3">
-        <v>7803</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="72" ht="32.517578125" customHeight="1">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B98" s="3">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="99" ht="32.517578125" customHeight="1">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="B118" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" ht="32.517578125" customHeight="1">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="B233" s="3">
-        <v>66356</v>
+        <v>66361</v>
       </c>
     </row>
     <row r="234" ht="32.517578125" customHeight="1">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="B250" s="3">
-        <v>420159</v>
+        <v>420164</v>
       </c>
     </row>
     <row r="251" ht="32.517578125" customHeight="1">
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B251" s="3">
-        <v>261356</v>
+        <v>261361</v>
       </c>
     </row>
     <row r="252" ht="32.517578125" customHeight="1">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B269" s="3">
-        <v>79526</v>
+        <v>79532</v>
       </c>
     </row>
     <row r="270" ht="32.517578125" customHeight="1">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="B270" s="3">
-        <v>160715</v>
+        <v>160719</v>
       </c>
     </row>
     <row r="271" ht="32.517578125" customHeight="1">
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="B274" s="3">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="275" ht="32.517578125" customHeight="1">
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="B288" s="3">
-        <v>3625</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="289" ht="32.517578125" customHeight="1">
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="B297" s="3">
-        <v>24331</v>
+        <v>24332</v>
       </c>
     </row>
     <row r="298" ht="32.517578125" customHeight="1">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B309" s="3">
-        <v>1281</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="310" ht="32.517578125" customHeight="1">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="B389" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="390" ht="32.517578125" customHeight="1">
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="B468" s="3">
-        <v>4225</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="469" ht="32.517578125" customHeight="1">
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="B497" s="3">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="498" ht="32.517578125" customHeight="1">
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="B521" s="3">
-        <v>20261</v>
+        <v>20262</v>
       </c>
     </row>
     <row r="522" ht="32.517578125" customHeight="1">
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="B566" s="3">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="567" ht="32.517578125" customHeight="1">
@@ -6298,7 +6298,7 @@
         </is>
       </c>
       <c r="B588" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" ht="32.517578125" customHeight="1">
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="B640" s="3">
-        <v>2690</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="641" ht="32.517578125" customHeight="1">
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="B664" s="3">
-        <v>6658</v>
+        <v>13304</v>
       </c>
     </row>
     <row r="665" ht="32.517578125" customHeight="1">
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="B688" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="689" ht="32.517578125" customHeight="1">
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="B698" s="3">
-        <v>3217</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="699" ht="32.517578125" customHeight="1">
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="B710" s="3">
-        <v>3</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="711" ht="32.517578125" customHeight="1">
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="B735" s="3">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="736" ht="32.517578125" customHeight="1">
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="B738" s="3">
-        <v>15582</v>
+        <v>15663</v>
       </c>
     </row>
     <row r="739" ht="32.517578125" customHeight="1">
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="B751" s="3">
-        <v>5485</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="752" ht="32.517578125" customHeight="1">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="B753" s="3">
-        <v>208907</v>
+        <v>208899</v>
       </c>
     </row>
     <row r="754" ht="32.517578125" customHeight="1">
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="B773" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="774" ht="32.517578125" customHeight="1">
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="B781" s="3">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="782" ht="32.517578125" customHeight="1">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B786" s="3">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="787" ht="32.517578125" customHeight="1">
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="B797" s="3">
-        <v>462</v>
+        <v>484</v>
       </c>
     </row>
     <row r="798" ht="32.517578125" customHeight="1">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="B804" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="805" ht="32.517578125" customHeight="1">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="B806" s="3">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="807" ht="32.517578125" customHeight="1">
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="B834" s="3">
-        <v>1662</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="835" ht="32.517578125" customHeight="1">
@@ -8808,7 +8808,7 @@
         </is>
       </c>
       <c r="B839" s="3">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="840" ht="32.517578125" customHeight="1">
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="B862" s="3">
-        <v>4671</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="863" ht="32.517578125" customHeight="1">
@@ -9128,7 +9128,7 @@
         </is>
       </c>
       <c r="B871" s="3">
-        <v>4032</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="872" ht="32.517578125" customHeight="1">
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="B881" s="3">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="882" ht="32.517578125" customHeight="1">
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="B895" s="3">
-        <v>4</v>
+        <v>313</v>
       </c>
     </row>
     <row r="896" ht="32.517578125" customHeight="1">
@@ -9458,7 +9458,7 @@
         </is>
       </c>
       <c r="B904" s="3">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="905" ht="32.517578125" customHeight="1">
@@ -9638,7 +9638,7 @@
         </is>
       </c>
       <c r="B922" s="3">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="923" ht="32.517578125" customHeight="1">
@@ -9798,7 +9798,7 @@
         </is>
       </c>
       <c r="B938" s="3">
-        <v>14510</v>
+        <v>14555</v>
       </c>
     </row>
     <row r="939" ht="32.517578125" customHeight="1">
@@ -9878,7 +9878,7 @@
         </is>
       </c>
       <c r="B946" s="3">
-        <v>9691</v>
+        <v>9738</v>
       </c>
     </row>
     <row r="947" ht="32.517578125" customHeight="1">
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="B957" s="3">
-        <v>5538</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="958" ht="32.517578125" customHeight="1">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="B958" s="3">
-        <v>64</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="959" ht="32.517578125" customHeight="1">
@@ -10208,7 +10208,7 @@
         </is>
       </c>
       <c r="B979" s="3">
-        <v>62101</v>
+        <v>62199</v>
       </c>
     </row>
     <row r="980" ht="32.517578125" customHeight="1">
@@ -10798,7 +10798,7 @@
         </is>
       </c>
       <c r="B1038" s="3">
-        <v>31926</v>
+        <v>31927</v>
       </c>
     </row>
     <row r="1039" ht="32.517578125" customHeight="1">
@@ -10848,7 +10848,7 @@
         </is>
       </c>
       <c r="B1043" s="3">
-        <v>50183</v>
+        <v>50290</v>
       </c>
     </row>
     <row r="1044" ht="32.517578125" customHeight="1">
@@ -10948,7 +10948,7 @@
         </is>
       </c>
       <c r="B1053" s="3">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1054" ht="32.517578125" customHeight="1">
@@ -11058,7 +11058,7 @@
         </is>
       </c>
       <c r="B1064" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1065" ht="32.517578125" customHeight="1">
@@ -11068,7 +11068,7 @@
         </is>
       </c>
       <c r="B1065" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1066" ht="32.517578125" customHeight="1">
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="B1072" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1073" ht="32.517578125" customHeight="1">
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="B1085" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1086" ht="32.517578125" customHeight="1">

--- a/dados/sobrestados.xlsx
+++ b/dados/sobrestados.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1086"/>
+  <dimension ref="A1:B1087"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="B104" s="3">
-        <v>7966</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="105" ht="32.517578125" customHeight="1">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="B127" s="3">
-        <v>3857</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="128" ht="32.517578125" customHeight="1">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="B250" s="3">
-        <v>420164</v>
+        <v>420184</v>
       </c>
     </row>
     <row r="251" ht="32.517578125" customHeight="1">
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B251" s="3">
-        <v>261361</v>
+        <v>261376</v>
       </c>
     </row>
     <row r="252" ht="32.517578125" customHeight="1">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B269" s="3">
-        <v>79532</v>
+        <v>79555</v>
       </c>
     </row>
     <row r="270" ht="32.517578125" customHeight="1">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="B270" s="3">
-        <v>160719</v>
+        <v>160742</v>
       </c>
     </row>
     <row r="271" ht="32.517578125" customHeight="1">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B302" s="3">
-        <v>189</v>
+        <v>219</v>
       </c>
     </row>
     <row r="303" ht="32.517578125" customHeight="1">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="B335" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="336" ht="32.517578125" customHeight="1">
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B360" s="3">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="361" ht="32.517578125" customHeight="1">
@@ -4038,7 +4038,7 @@
         </is>
       </c>
       <c r="B362" s="3">
-        <v>5635</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="363" ht="32.517578125" customHeight="1">
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="B479" s="3">
-        <v>6651</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="480" ht="32.517578125" customHeight="1">
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="B553" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="554" ht="32.517578125" customHeight="1">
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="B654" s="3">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="655" ht="32.517578125" customHeight="1">
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="B698" s="3">
-        <v>3221</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="699" ht="32.517578125" customHeight="1">
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="B709" s="3">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="710" ht="32.517578125" customHeight="1">
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="B735" s="3">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="736" ht="32.517578125" customHeight="1">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="B753" s="3">
-        <v>208899</v>
+        <v>208895</v>
       </c>
     </row>
     <row r="754" ht="32.517578125" customHeight="1">
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="B758" s="3">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="759" ht="32.517578125" customHeight="1">
@@ -9128,7 +9128,7 @@
         </is>
       </c>
       <c r="B871" s="3">
-        <v>4041</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="872" ht="32.517578125" customHeight="1">
@@ -9798,7 +9798,7 @@
         </is>
       </c>
       <c r="B938" s="3">
-        <v>14555</v>
+        <v>14563</v>
       </c>
     </row>
     <row r="939" ht="32.517578125" customHeight="1">
@@ -9878,7 +9878,7 @@
         </is>
       </c>
       <c r="B946" s="3">
-        <v>9738</v>
+        <v>9755</v>
       </c>
     </row>
     <row r="947" ht="32.517578125" customHeight="1">
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="B957" s="3">
-        <v>5556</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="958" ht="32.517578125" customHeight="1">
@@ -10208,7 +10208,7 @@
         </is>
       </c>
       <c r="B979" s="3">
-        <v>62199</v>
+        <v>62228</v>
       </c>
     </row>
     <row r="980" ht="32.517578125" customHeight="1">
@@ -10428,7 +10428,7 @@
         </is>
       </c>
       <c r="B1001" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1002" ht="32.517578125" customHeight="1">
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="B1036" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1037" ht="32.517578125" customHeight="1">
@@ -10848,7 +10848,7 @@
         </is>
       </c>
       <c r="B1043" s="3">
-        <v>50290</v>
+        <v>50330</v>
       </c>
     </row>
     <row r="1044" ht="32.517578125" customHeight="1">
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="B1049" s="3">
-        <v>948</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1050" ht="32.517578125" customHeight="1">
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="B1050" s="3">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="1051" ht="32.517578125" customHeight="1">
@@ -11068,7 +11068,7 @@
         </is>
       </c>
       <c r="B1065" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1066" ht="32.517578125" customHeight="1">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="B1075" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1076" ht="32.517578125" customHeight="1">
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="B1085" s="3">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1086" ht="32.517578125" customHeight="1">
@@ -11279,6 +11279,16 @@
       </c>
       <c r="B1086" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1087" ht="32.517578125" customHeight="1">
+      <c r="A1087" s="2" t="inlineStr">
+        <is>
+          <t>STF RG 1189</t>
+        </is>
+      </c>
+      <c r="B1087" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dados/sobrestados.xlsx
+++ b/dados/sobrestados.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1087"/>
+  <dimension ref="A1:B1091"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" s="3">
-        <v>55429</v>
+        <v>55457</v>
       </c>
     </row>
     <row r="8" ht="32.517578125" customHeight="1">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B26" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" ht="32.517578125" customHeight="1">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="B27" s="3">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" ht="32.517578125" customHeight="1">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B28" s="3">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" ht="32.517578125" customHeight="1">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B49" s="3">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" ht="32.517578125" customHeight="1">
@@ -1038,7 +1038,7 @@
         </is>
       </c>
       <c r="B62" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="32.517578125" customHeight="1">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B63" s="3">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="32.517578125" customHeight="1">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="B72" s="3">
-        <v>229</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" ht="32.517578125" customHeight="1">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="B78" s="3">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" ht="32.517578125" customHeight="1">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B81" s="3">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" ht="32.517578125" customHeight="1">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="B85" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" ht="32.517578125" customHeight="1">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B86" s="3">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="32.517578125" customHeight="1">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B87" s="3">
-        <v>128</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" ht="32.517578125" customHeight="1">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="B88" s="3">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" ht="32.517578125" customHeight="1">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B94" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="32.517578125" customHeight="1">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B96" s="3">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" ht="32.517578125" customHeight="1">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B106" s="3">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="32.517578125" customHeight="1">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B116" s="3">
-        <v>4417</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="117" ht="32.517578125" customHeight="1">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B121" s="3">
-        <v>4795</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="122" ht="32.517578125" customHeight="1">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="B128" s="3">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
     <row r="129" ht="32.517578125" customHeight="1">
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="B131" s="3">
-        <v>3526</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="132" ht="32.517578125" customHeight="1">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="B135" s="3">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="136" ht="32.517578125" customHeight="1">
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="B139" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" ht="32.517578125" customHeight="1">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="B140" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" ht="32.517578125" customHeight="1">
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="B141" s="3">
-        <v>1681</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="142" ht="32.517578125" customHeight="1">
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="B145" s="3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="146" ht="32.517578125" customHeight="1">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="B160" s="3">
-        <v>2841</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="161" ht="32.517578125" customHeight="1">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="B169" s="3">
-        <v>10384</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="170" ht="32.517578125" customHeight="1">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B182" s="3">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="183" ht="32.517578125" customHeight="1">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="B202" s="3">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="203" ht="32.517578125" customHeight="1">
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="B231" s="3">
-        <v>285</v>
+        <v>413</v>
       </c>
     </row>
     <row r="232" ht="32.517578125" customHeight="1">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="B234" s="3">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="235" ht="32.517578125" customHeight="1">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="B250" s="3">
-        <v>420184</v>
+        <v>420198</v>
       </c>
     </row>
     <row r="251" ht="32.517578125" customHeight="1">
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="B251" s="3">
-        <v>261376</v>
+        <v>261386</v>
       </c>
     </row>
     <row r="252" ht="32.517578125" customHeight="1">
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="B256" s="3">
-        <v>382</v>
+        <v>431</v>
       </c>
     </row>
     <row r="257" ht="32.517578125" customHeight="1">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B269" s="3">
-        <v>79555</v>
+        <v>79746</v>
       </c>
     </row>
     <row r="270" ht="32.517578125" customHeight="1">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="B270" s="3">
-        <v>160742</v>
+        <v>160916</v>
       </c>
     </row>
     <row r="271" ht="32.517578125" customHeight="1">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="B273" s="3">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="274" ht="32.517578125" customHeight="1">
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="B289" s="3">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="290" ht="32.517578125" customHeight="1">
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="B290" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" ht="32.517578125" customHeight="1">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="B307" s="3">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="308" ht="32.517578125" customHeight="1">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B309" s="3">
-        <v>3359</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="310" ht="32.517578125" customHeight="1">
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="B314" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="315" ht="32.517578125" customHeight="1">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="B317" s="3">
-        <v>585</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="318" ht="32.517578125" customHeight="1">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="B322" s="3">
-        <v>17348</v>
+        <v>17349</v>
       </c>
     </row>
     <row r="323" ht="32.517578125" customHeight="1">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="B333" s="3">
-        <v>20666</v>
+        <v>20672</v>
       </c>
     </row>
     <row r="334" ht="32.517578125" customHeight="1">
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="B334" s="3">
-        <v>35</v>
+        <v>169</v>
       </c>
     </row>
     <row r="335" ht="32.517578125" customHeight="1">
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="B336" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" ht="32.517578125" customHeight="1">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="B337" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" ht="32.517578125" customHeight="1">
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="B352" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" ht="32.517578125" customHeight="1">
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="B365" s="3">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="366" ht="32.517578125" customHeight="1">
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="B370" s="3">
-        <v>4054</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="371" ht="32.517578125" customHeight="1">
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="B375" s="3">
-        <v>1134</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="376" ht="32.517578125" customHeight="1">
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="B381" s="3">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="382" ht="32.517578125" customHeight="1">
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="B412" s="3">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="413" ht="32.517578125" customHeight="1">
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="B433" s="3">
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="434" ht="32.517578125" customHeight="1">
@@ -5048,7 +5048,7 @@
         </is>
       </c>
       <c r="B463" s="3">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="464" ht="32.517578125" customHeight="1">
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="B482" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483" ht="32.517578125" customHeight="1">
@@ -5408,7 +5408,7 @@
         </is>
       </c>
       <c r="B499" s="3">
-        <v>293</v>
+        <v>348</v>
       </c>
     </row>
     <row r="500" ht="32.517578125" customHeight="1">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="B503" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="504" ht="32.517578125" customHeight="1">
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="B504" s="3">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="505" ht="32.517578125" customHeight="1">
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="B508" s="3">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="509" ht="32.517578125" customHeight="1">
@@ -5508,7 +5508,7 @@
         </is>
       </c>
       <c r="B509" s="3">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="510" ht="32.517578125" customHeight="1">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B515" s="3">
-        <v>1125</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="516" ht="32.517578125" customHeight="1">
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="B527" s="3">
-        <v>74</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="528" ht="32.517578125" customHeight="1">
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="B541" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="542" ht="32.517578125" customHeight="1">
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="B549" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="550" ht="32.517578125" customHeight="1">
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="B551" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="552" ht="32.517578125" customHeight="1">
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="B566" s="3">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="567" ht="32.517578125" customHeight="1">
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="B571" s="3">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="572" ht="32.517578125" customHeight="1">
@@ -6228,7 +6228,7 @@
         </is>
       </c>
       <c r="B581" s="3">
-        <v>6506</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="582" ht="32.517578125" customHeight="1">
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="B618" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="619" ht="32.517578125" customHeight="1">
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="B619" s="3">
-        <v>21747</v>
+        <v>25035</v>
       </c>
     </row>
     <row r="620" ht="32.517578125" customHeight="1">
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="B624" s="3">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="625" ht="32.517578125" customHeight="1">
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="B625" s="3">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="626" ht="32.517578125" customHeight="1">
@@ -6738,7 +6738,7 @@
         </is>
       </c>
       <c r="B632" s="3">
-        <v>32</v>
+        <v>191</v>
       </c>
     </row>
     <row r="633" ht="32.517578125" customHeight="1">
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="B636" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="637" ht="32.517578125" customHeight="1">
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="B640" s="3">
-        <v>2691</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="641" ht="32.517578125" customHeight="1">
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="B645" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="646" ht="32.517578125" customHeight="1">
@@ -7178,7 +7178,7 @@
         </is>
       </c>
       <c r="B676" s="3">
-        <v>2094</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="677" ht="32.517578125" customHeight="1">
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="B679" s="3">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="680" ht="32.517578125" customHeight="1">
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="B698" s="3">
-        <v>3224</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="699" ht="32.517578125" customHeight="1">
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="B699" s="3">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="700" ht="32.517578125" customHeight="1">
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="B700" s="3">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="701" ht="32.517578125" customHeight="1">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="B715" s="3">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="716" ht="32.517578125" customHeight="1">
@@ -7738,7 +7738,7 @@
         </is>
       </c>
       <c r="B732" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" ht="32.517578125" customHeight="1">
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="B738" s="3">
-        <v>15663</v>
+        <v>15862</v>
       </c>
     </row>
     <row r="739" ht="32.517578125" customHeight="1">
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="B758" s="3">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="759" ht="32.517578125" customHeight="1">
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="B771" s="3">
-        <v>606</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="772" ht="32.517578125" customHeight="1">
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="B793" s="3">
-        <v>66</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="794" ht="32.517578125" customHeight="1">
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="B803" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="804" ht="32.517578125" customHeight="1">
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="B810" s="3">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="811" ht="32.517578125" customHeight="1">
@@ -8558,7 +8558,7 @@
         </is>
       </c>
       <c r="B814" s="3">
-        <v>308</v>
+        <v>697</v>
       </c>
     </row>
     <row r="815" ht="32.517578125" customHeight="1">
@@ -8628,7 +8628,7 @@
         </is>
       </c>
       <c r="B821" s="3">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="822" ht="32.517578125" customHeight="1">
@@ -8658,7 +8658,7 @@
         </is>
       </c>
       <c r="B824" s="3">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="825" ht="32.517578125" customHeight="1">
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="B831" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="832" ht="32.517578125" customHeight="1">
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="B842" s="3">
-        <v>6209</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="843" ht="32.517578125" customHeight="1">
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="B846" s="3">
-        <v>1</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="847" ht="32.517578125" customHeight="1">
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="B847" s="3">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="848" ht="32.517578125" customHeight="1">
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="B849" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="850" ht="32.517578125" customHeight="1">
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="B862" s="3">
-        <v>4684</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="863" ht="32.517578125" customHeight="1">
@@ -9188,7 +9188,7 @@
         </is>
       </c>
       <c r="B877" s="3">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="878" ht="32.517578125" customHeight="1">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="B880" s="3">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="881" ht="32.517578125" customHeight="1">
@@ -9308,7 +9308,7 @@
         </is>
       </c>
       <c r="B889" s="3">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="890" ht="32.517578125" customHeight="1">
@@ -9398,7 +9398,7 @@
         </is>
       </c>
       <c r="B898" s="3">
-        <v>11</v>
+        <v>335</v>
       </c>
     </row>
     <row r="899" ht="32.517578125" customHeight="1">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="B906" s="3">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="907" ht="32.517578125" customHeight="1">
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="B921" s="3">
-        <v>19218</v>
+        <v>19229</v>
       </c>
     </row>
     <row r="922" ht="32.517578125" customHeight="1">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="B932" s="3">
-        <v>7</v>
+        <v>125</v>
       </c>
     </row>
     <row r="933" ht="32.517578125" customHeight="1">
@@ -9798,7 +9798,7 @@
         </is>
       </c>
       <c r="B938" s="3">
-        <v>14563</v>
+        <v>14580</v>
       </c>
     </row>
     <row r="939" ht="32.517578125" customHeight="1">
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="B942" s="3">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="943" ht="32.517578125" customHeight="1">
@@ -9858,7 +9858,7 @@
         </is>
       </c>
       <c r="B944" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="945" ht="32.517578125" customHeight="1">
@@ -9878,7 +9878,7 @@
         </is>
       </c>
       <c r="B946" s="3">
-        <v>9755</v>
+        <v>9756</v>
       </c>
     </row>
     <row r="947" ht="32.517578125" customHeight="1">
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="B951" s="3">
-        <v>2294</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="952" ht="32.517578125" customHeight="1">
@@ -9938,7 +9938,7 @@
         </is>
       </c>
       <c r="B952" s="3">
-        <v>250</v>
+        <v>331</v>
       </c>
     </row>
     <row r="953" ht="32.517578125" customHeight="1">
@@ -9958,7 +9958,7 @@
         </is>
       </c>
       <c r="B954" s="3">
-        <v>4813</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="955" ht="32.517578125" customHeight="1">
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="B957" s="3">
-        <v>5558</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="958" ht="32.517578125" customHeight="1">
@@ -10018,7 +10018,7 @@
         </is>
       </c>
       <c r="B960" s="3">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="961" ht="32.517578125" customHeight="1">
@@ -10178,7 +10178,7 @@
         </is>
       </c>
       <c r="B976" s="3">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="977" ht="32.517578125" customHeight="1">
@@ -10208,7 +10208,7 @@
         </is>
       </c>
       <c r="B979" s="3">
-        <v>62228</v>
+        <v>62321</v>
       </c>
     </row>
     <row r="980" ht="32.517578125" customHeight="1">
@@ -10378,7 +10378,7 @@
         </is>
       </c>
       <c r="B996" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="997" ht="32.517578125" customHeight="1">
@@ -10498,7 +10498,7 @@
         </is>
       </c>
       <c r="B1008" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1009" ht="32.517578125" customHeight="1">
@@ -10578,7 +10578,7 @@
         </is>
       </c>
       <c r="B1016" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1017" ht="32.517578125" customHeight="1">
@@ -10698,7 +10698,7 @@
         </is>
       </c>
       <c r="B1028" s="3">
-        <v>2</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1029" ht="32.517578125" customHeight="1">
@@ -10728,7 +10728,7 @@
         </is>
       </c>
       <c r="B1031" s="3">
-        <v>9</v>
+        <v>719</v>
       </c>
     </row>
     <row r="1032" ht="32.517578125" customHeight="1">
@@ -10738,7 +10738,7 @@
         </is>
       </c>
       <c r="B1032" s="3">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1033" ht="32.517578125" customHeight="1">
@@ -10798,7 +10798,7 @@
         </is>
       </c>
       <c r="B1038" s="3">
-        <v>31927</v>
+        <v>31932</v>
       </c>
     </row>
     <row r="1039" ht="32.517578125" customHeight="1">
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="B1039" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1040" ht="32.517578125" customHeight="1">
@@ -10848,7 +10848,7 @@
         </is>
       </c>
       <c r="B1043" s="3">
-        <v>50330</v>
+        <v>50344</v>
       </c>
     </row>
     <row r="1044" ht="32.517578125" customHeight="1">
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="B1050" s="3">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="1051" ht="32.517578125" customHeight="1">
@@ -11068,7 +11068,7 @@
         </is>
       </c>
       <c r="B1065" s="3">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1066" ht="32.517578125" customHeight="1">
@@ -11108,7 +11108,7 @@
         </is>
       </c>
       <c r="B1069" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1070" ht="32.517578125" customHeight="1">
@@ -11208,7 +11208,7 @@
         </is>
       </c>
       <c r="B1079" s="3">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1080" ht="32.517578125" customHeight="1">
@@ -11274,20 +11274,60 @@
     <row r="1086" ht="32.517578125" customHeight="1">
       <c r="A1086" s="2" t="inlineStr">
         <is>
-          <t>STF RG 1179</t>
+          <t>STF RG 1178</t>
         </is>
       </c>
       <c r="B1086" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1087" ht="32.517578125" customHeight="1">
       <c r="A1087" s="2" t="inlineStr">
         <is>
+          <t>STF RG 1179</t>
+        </is>
+      </c>
+      <c r="B1087" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1088" ht="32.517578125" customHeight="1">
+      <c r="A1088" s="2" t="inlineStr">
+        <is>
+          <t>STF RG 1184</t>
+        </is>
+      </c>
+      <c r="B1088" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1089" ht="32.517578125" customHeight="1">
+      <c r="A1089" s="2" t="inlineStr">
+        <is>
+          <t>STF RG 1186</t>
+        </is>
+      </c>
+      <c r="B1089" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1090" ht="32.517578125" customHeight="1">
+      <c r="A1090" s="2" t="inlineStr">
+        <is>
+          <t>STF RG 1187</t>
+        </is>
+      </c>
+      <c r="B1090" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" ht="32.517578125" customHeight="1">
+      <c r="A1091" s="2" t="inlineStr">
+        <is>
           <t>STF RG 1189</t>
         </is>
       </c>
-      <c r="B1087" s="3">
+      <c r="B1091" s="3">
         <v>1</v>
       </c>
     </row>
